--- a/static/Database/Hospitals.xlsx
+++ b/static/Database/Hospitals.xlsx
@@ -138,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -154,6 +154,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -476,10 +479,10 @@
     <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +515,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -545,7 +548,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -578,7 +581,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -611,7 +614,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -644,7 +647,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <v>4</v>
       </c>
